--- a/eredmenyek/Reicher Zoltán A, 038.xlsx
+++ b/eredmenyek/Reicher Zoltán A, 038.xlsx
@@ -36,7 +36,7 @@
     <t>Dátum</t>
   </si>
   <si>
-    <t>Havi előirányaz</t>
+    <t>Havi előirányzat</t>
   </si>
   <si>
     <t>Fennmaradó hátralék</t>
@@ -142,7 +142,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.3515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.01953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.40625" customWidth="true" bestFit="true"/>

--- a/eredmenyek/Reicher Zoltán A, 038.xlsx
+++ b/eredmenyek/Reicher Zoltán A, 038.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="22">
   <si>
     <t>Reicher Zoltán</t>
   </si>
@@ -72,6 +72,12 @@
     <t>--&gt;</t>
   </si>
   <si>
+    <t>Befizető</t>
+  </si>
+  <si>
+    <t>Összeg</t>
+  </si>
+  <si>
     <t>Összes fennmaradó hátralék</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
   </si>
   <si>
     <t>Összes tartozás</t>
+  </si>
+  <si>
+    <t>Megmaradt befizetés</t>
   </si>
   <si>
     <t>Összes tartozás, nyitóegyenleggel</t>
@@ -142,10 +151,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.01953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.40625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -160,20 +172,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -192,6 +198,15 @@
       <c r="E4" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="G4" t="n" s="1">
+        <v>42795.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n" s="2">
+        <v>121260.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
@@ -209,6 +224,15 @@
       <c r="E5" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="G5" t="n" s="1">
+        <v>42907.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n" s="2">
+        <v>103000.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
@@ -226,6 +250,15 @@
       <c r="E6" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="G6" t="n" s="1">
+        <v>43062.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n" s="2">
+        <v>80000.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
@@ -399,7 +432,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n" s="2">
         <v>56376.0</v>
@@ -407,7 +440,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n" s="2">
         <v>12286.0</v>
@@ -415,15 +448,23 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n" s="2">
         <v>68662.0</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="n" s="2">
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="n" s="2">
         <v>68671.0</v>
       </c>
     </row>
